--- a/quanlysinhvien/danhsachhocphan/lophocphan/dsLopHP.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/dsLopHP.xlsx
@@ -329,7 +329,7 @@
         <v>45.0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -364,7 +364,7 @@
         <v>50.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -399,7 +399,7 @@
         <v>50.0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -434,7 +434,7 @@
         <v>120.0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>80.0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
